--- a/sm_words.xlsx
+++ b/sm_words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\pretest_fmri\Guess_fMRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41B477D-F192-4128-BEF2-68F116F5ACB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D57BE9-2F19-429B-9F91-FE7A6690292C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{0D18EC69-7D83-41FB-BB56-00D5490994EA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="324">
   <si>
     <t>Cue</t>
   </si>
@@ -230,9 +230,6 @@
     <t>Vampir</t>
   </si>
   <si>
-    <t>Geist</t>
-  </si>
-  <si>
     <t>Vergangenheit</t>
   </si>
   <si>
@@ -251,12 +248,6 @@
     <t>Brise</t>
   </si>
   <si>
-    <t>Kind</t>
-  </si>
-  <si>
-    <t>Junge</t>
-  </si>
-  <si>
     <t>Decke</t>
   </si>
   <si>
@@ -269,9 +260,6 @@
     <t>Theater</t>
   </si>
   <si>
-    <t>Klebstoff</t>
-  </si>
-  <si>
     <t>Papier</t>
   </si>
   <si>
@@ -284,18 +272,9 @@
     <t>Strand</t>
   </si>
   <si>
-    <t>Schauspielerin</t>
-  </si>
-  <si>
-    <t>Frau</t>
-  </si>
-  <si>
     <t>Schnorchel</t>
   </si>
   <si>
-    <t>Flossen</t>
-  </si>
-  <si>
     <t>Humor</t>
   </si>
   <si>
@@ -308,12 +287,6 @@
     <t>Stiefel</t>
   </si>
   <si>
-    <t>Karneval</t>
-  </si>
-  <si>
-    <t>Festival</t>
-  </si>
-  <si>
     <t>Mappe</t>
   </si>
   <si>
@@ -338,12 +311,6 @@
     <t>Reifen</t>
   </si>
   <si>
-    <t>Wasserfall</t>
-  </si>
-  <si>
-    <t>Felsen</t>
-  </si>
-  <si>
     <t>Raum</t>
   </si>
   <si>
@@ -353,9 +320,6 @@
     <t>Wein</t>
   </si>
   <si>
-    <t>Abendessen</t>
-  </si>
-  <si>
     <t>Schlüssel</t>
   </si>
   <si>
@@ -371,15 +335,6 @@
     <t>Zahnpasta</t>
   </si>
   <si>
-    <t>Minze</t>
-  </si>
-  <si>
-    <t>Tänzer</t>
-  </si>
-  <si>
-    <t>Musik</t>
-  </si>
-  <si>
     <t>Zimt</t>
   </si>
   <si>
@@ -389,9 +344,6 @@
     <t>Teleskop</t>
   </si>
   <si>
-    <t>Mikroskop</t>
-  </si>
-  <si>
     <t>Teller</t>
   </si>
   <si>
@@ -422,9 +374,6 @@
     <t>Zug</t>
   </si>
   <si>
-    <t>Flugzeug</t>
-  </si>
-  <si>
     <t>Zunge</t>
   </si>
   <si>
@@ -581,18 +530,6 @@
     <t>Haar</t>
   </si>
   <si>
-    <t>Kamin</t>
-  </si>
-  <si>
-    <t>Ziegel</t>
-  </si>
-  <si>
-    <t>Stift</t>
-  </si>
-  <si>
-    <t>Wort</t>
-  </si>
-  <si>
     <t>Sumpf</t>
   </si>
   <si>
@@ -605,12 +542,6 @@
     <t>Asche</t>
   </si>
   <si>
-    <t>Kaktus</t>
-  </si>
-  <si>
-    <t>Blüte</t>
-  </si>
-  <si>
     <t>Kiefer</t>
   </si>
   <si>
@@ -623,9 +554,6 @@
     <t>Herbst</t>
   </si>
   <si>
-    <t>Aroma</t>
-  </si>
-  <si>
     <t>Liebe</t>
   </si>
   <si>
@@ -653,9 +581,6 @@
     <t>Kälte</t>
   </si>
   <si>
-    <t>Snow</t>
-  </si>
-  <si>
     <t>Spiele</t>
   </si>
   <si>
@@ -768,6 +693,321 @@
   </si>
   <si>
     <t>Spion</t>
+  </si>
+  <si>
+    <t>Schnee</t>
+  </si>
+  <si>
+    <t>Oster</t>
+  </si>
+  <si>
+    <t>Sonntag</t>
+  </si>
+  <si>
+    <t>Hase</t>
+  </si>
+  <si>
+    <t>Ei</t>
+  </si>
+  <si>
+    <t>Milch</t>
+  </si>
+  <si>
+    <t>Butter</t>
+  </si>
+  <si>
+    <t>Kuh</t>
+  </si>
+  <si>
+    <t>Popcorn</t>
+  </si>
+  <si>
+    <t>Film</t>
+  </si>
+  <si>
+    <t>Koch</t>
+  </si>
+  <si>
+    <t>Waschbecken</t>
+  </si>
+  <si>
+    <t>Wohnung</t>
+  </si>
+  <si>
+    <t>Bett</t>
+  </si>
+  <si>
+    <t>Ausbildung</t>
+  </si>
+  <si>
+    <t>Lernen</t>
+  </si>
+  <si>
+    <t>Tasche</t>
+  </si>
+  <si>
+    <t>Känguru</t>
+  </si>
+  <si>
+    <t>Wärme</t>
+  </si>
+  <si>
+    <t>Abdeckung</t>
+  </si>
+  <si>
+    <t>Fahrrad</t>
+  </si>
+  <si>
+    <t>Kopf</t>
+  </si>
+  <si>
+    <t>Krone</t>
+  </si>
+  <si>
+    <t>Diamant</t>
+  </si>
+  <si>
+    <t>Handy</t>
+  </si>
+  <si>
+    <t>Nummer</t>
+  </si>
+  <si>
+    <t>Anruf</t>
+  </si>
+  <si>
+    <t>Gespräch</t>
+  </si>
+  <si>
+    <t>Postkarte</t>
+  </si>
+  <si>
+    <t>Nachricht</t>
+  </si>
+  <si>
+    <t>Brief</t>
+  </si>
+  <si>
+    <t>Urlaub</t>
+  </si>
+  <si>
+    <t>Datei</t>
+  </si>
+  <si>
+    <t>Benzin</t>
+  </si>
+  <si>
+    <t>Wasser</t>
+  </si>
+  <si>
+    <t>Tür</t>
+  </si>
+  <si>
+    <t>Schloss</t>
+  </si>
+  <si>
+    <t>Blase</t>
+  </si>
+  <si>
+    <t>Fisch</t>
+  </si>
+  <si>
+    <t>Schwimmen</t>
+  </si>
+  <si>
+    <t>Fuß</t>
+  </si>
+  <si>
+    <t>Schnürsenkel</t>
+  </si>
+  <si>
+    <t>Conditioner</t>
+  </si>
+  <si>
+    <t>Haare</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Sicherheit</t>
+  </si>
+  <si>
+    <t>Stein</t>
+  </si>
+  <si>
+    <t>Marmor</t>
+  </si>
+  <si>
+    <t>Foto</t>
+  </si>
+  <si>
+    <t>Album</t>
+  </si>
+  <si>
+    <t>Erinnerung</t>
+  </si>
+  <si>
+    <t>Kamera</t>
+  </si>
+  <si>
+    <t>Himmel</t>
+  </si>
+  <si>
+    <t>Sterne</t>
+  </si>
+  <si>
+    <t>Weltraum</t>
+  </si>
+  <si>
+    <t>Gericht</t>
+  </si>
+  <si>
+    <t>Essen</t>
+  </si>
+  <si>
+    <t>Gel</t>
+  </si>
+  <si>
+    <t>Bürste</t>
+  </si>
+  <si>
+    <t>Tube</t>
+  </si>
+  <si>
+    <t>Bild</t>
+  </si>
+  <si>
+    <t>Kunst</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>Gleis</t>
+  </si>
+  <si>
+    <t>Lokomotive</t>
+  </si>
+  <si>
+    <t>Luft</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Zigarette</t>
+  </si>
+  <si>
+    <t>Feuer</t>
+  </si>
+  <si>
+    <t>Schlamm</t>
+  </si>
+  <si>
+    <t>Moor</t>
+  </si>
+  <si>
+    <t>Lava</t>
+  </si>
+  <si>
+    <t>Ausbruch</t>
+  </si>
+  <si>
+    <t>Berg</t>
+  </si>
+  <si>
+    <t>Tal</t>
+  </si>
+  <si>
+    <t>Hügel</t>
+  </si>
+  <si>
+    <t>Spitze</t>
+  </si>
+  <si>
+    <t>Professor</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Lehrer</t>
+  </si>
+  <si>
+    <t>Universität</t>
+  </si>
+  <si>
+    <t>Konzert</t>
+  </si>
+  <si>
+    <t>Leute</t>
+  </si>
+  <si>
+    <t>Journalistin</t>
+  </si>
+  <si>
+    <t>Brille</t>
+  </si>
+  <si>
+    <t>Zeitung</t>
+  </si>
+  <si>
+    <t>Autor</t>
+  </si>
+  <si>
+    <t>Kellner</t>
+  </si>
+  <si>
+    <t>Tablett</t>
+  </si>
+  <si>
+    <t>Restaurant</t>
+  </si>
+  <si>
+    <t>Kellnerin</t>
+  </si>
+  <si>
+    <t>Monster</t>
+  </si>
+  <si>
+    <t>Blut</t>
+  </si>
+  <si>
+    <t>Fledermaus</t>
+  </si>
+  <si>
+    <t>Klee</t>
+  </si>
+  <si>
+    <t>Glück</t>
+  </si>
+  <si>
+    <t>Blatt</t>
+  </si>
+  <si>
+    <t>Feld</t>
+  </si>
+  <si>
+    <t>Baum</t>
+  </si>
+  <si>
+    <t>Zapfen</t>
+  </si>
+  <si>
+    <t>Mäher</t>
+  </si>
+  <si>
+    <t>Gras</t>
+  </si>
+  <si>
+    <t>Trauben</t>
+  </si>
+  <si>
+    <t>Geruch</t>
+  </si>
+  <si>
+    <t>Dorn</t>
   </si>
 </sst>
 </file>
@@ -807,36 +1047,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -852,25 +1068,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1217,15 +1423,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2A1A8A-43B4-4D5C-BD02-C73A271626CC}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57:D61"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1239,721 +1445,807 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C4" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+        <v>124</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+        <v>125</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D9" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+        <v>127</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+        <v>221</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+        <v>131</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C25" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C28" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="C30" s="4" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="11" t="s">
+      <c r="D30" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A30" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="11" t="s">
+      <c r="C38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A34" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A35" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A36" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A37" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A38" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C39" t="s">
-        <v>185</v>
-      </c>
-      <c r="D39" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C39" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" t="s">
-        <v>187</v>
-      </c>
-      <c r="D40" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+        <v>231</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C41" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+        <v>162</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C42" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C42" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" t="s">
+        <v>241</v>
+      </c>
+      <c r="D45" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C46" t="s">
+        <v>245</v>
+      </c>
+      <c r="D46" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A47" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C47" t="s">
+        <v>249</v>
+      </c>
+      <c r="D47" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A48" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" t="s">
+        <v>251</v>
+      </c>
+      <c r="D48" t="s">
         <v>74</v>
       </c>
-      <c r="C43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A44" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C44" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A45" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A46" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C46" t="s">
-        <v>45</v>
-      </c>
-      <c r="D46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A47" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B47" s="2" t="s">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A49" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" t="s">
+        <v>252</v>
+      </c>
+      <c r="D49" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A50" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" t="s">
+        <v>254</v>
+      </c>
+      <c r="D50" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C47" t="s">
-        <v>71</v>
-      </c>
-      <c r="D47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C48" t="s">
-        <v>96</v>
-      </c>
-      <c r="D48" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A49" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B51" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C51" t="s">
+        <v>257</v>
+      </c>
+      <c r="D51" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D49" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A50" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50" t="s">
-        <v>112</v>
-      </c>
-      <c r="D50" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A51" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C51" t="s">
-        <v>63</v>
-      </c>
-      <c r="D51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A52" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="C52" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
       <c r="D52" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
         <v>26</v>
       </c>
@@ -1961,13 +2253,13 @@
         <v>27</v>
       </c>
       <c r="C53" t="s">
-        <v>191</v>
+        <v>261</v>
       </c>
       <c r="D53" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>61</v>
       </c>
@@ -1975,108 +2267,420 @@
         <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>55</v>
+        <v>263</v>
       </c>
       <c r="D54" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C55" t="s">
-        <v>193</v>
+        <v>265</v>
       </c>
       <c r="D55" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
-        <v>183</v>
+        <v>267</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>184</v>
+        <v>268</v>
       </c>
       <c r="C56" t="s">
-        <v>137</v>
+        <v>269</v>
       </c>
       <c r="D56" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+        <v>271</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+        <v>103</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+        <v>276</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A61" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>164</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>166</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>292</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>37</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D70" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A61" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C61" s="14" t="s">
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>45</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D71" s="2" t="s">
         <v>48</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>296</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" t="s">
+        <v>300</v>
+      </c>
+      <c r="C73" t="s">
+        <v>88</v>
+      </c>
+      <c r="D73" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>302</v>
+      </c>
+      <c r="B74" t="s">
+        <v>303</v>
+      </c>
+      <c r="C74" t="s">
+        <v>304</v>
+      </c>
+      <c r="D74" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>306</v>
+      </c>
+      <c r="B75" t="s">
+        <v>307</v>
+      </c>
+      <c r="C75" t="s">
+        <v>308</v>
+      </c>
+      <c r="D75" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>63</v>
+      </c>
+      <c r="B76" t="s">
+        <v>310</v>
+      </c>
+      <c r="C76" t="s">
+        <v>311</v>
+      </c>
+      <c r="D76" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>313</v>
+      </c>
+      <c r="B77" t="s">
+        <v>314</v>
+      </c>
+      <c r="C77" t="s">
+        <v>315</v>
+      </c>
+      <c r="D77" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>168</v>
+      </c>
+      <c r="B78" t="s">
+        <v>169</v>
+      </c>
+      <c r="C78" t="s">
+        <v>317</v>
+      </c>
+      <c r="D78" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>55</v>
+      </c>
+      <c r="B79" t="s">
+        <v>56</v>
+      </c>
+      <c r="C79" t="s">
+        <v>319</v>
+      </c>
+      <c r="D79" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>170</v>
+      </c>
+      <c r="B80" t="s">
+        <v>171</v>
+      </c>
+      <c r="C80" t="s">
+        <v>321</v>
+      </c>
+      <c r="D80" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" t="s">
+        <v>322</v>
+      </c>
+      <c r="C81" t="s">
+        <v>323</v>
+      </c>
+      <c r="D81" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/sm_words.xlsx
+++ b/sm_words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\pretest_fmri\Guess_fMRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D57BE9-2F19-429B-9F91-FE7A6690292C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D1B6F0-4B34-48CE-9A05-D63352E0BCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{0D18EC69-7D83-41FB-BB56-00D5490994EA}"/>
   </bookViews>
@@ -290,9 +290,6 @@
     <t>Mappe</t>
   </si>
   <si>
-    <t>Buch</t>
-  </si>
-  <si>
     <t>Tee</t>
   </si>
   <si>
@@ -425,9 +422,6 @@
     <t>Winter</t>
   </si>
   <si>
-    <t>Weiss</t>
-  </si>
-  <si>
     <t>Olympia</t>
   </si>
   <si>
@@ -446,9 +440,6 @@
     <t>Ozean</t>
   </si>
   <si>
-    <t>Schneke</t>
-  </si>
-  <si>
     <t>Schleim</t>
   </si>
   <si>
@@ -491,9 +482,6 @@
     <t>Sprechen</t>
   </si>
   <si>
-    <t>Klub</t>
-  </si>
-  <si>
     <t>Gesellschaft</t>
   </si>
   <si>
@@ -527,9 +515,6 @@
     <t>Bücher</t>
   </si>
   <si>
-    <t>Haar</t>
-  </si>
-  <si>
     <t>Sumpf</t>
   </si>
   <si>
@@ -698,9 +683,6 @@
     <t>Schnee</t>
   </si>
   <si>
-    <t>Oster</t>
-  </si>
-  <si>
     <t>Sonntag</t>
   </si>
   <si>
@@ -1008,13 +990,31 @@
   </si>
   <si>
     <t>Dorn</t>
+  </si>
+  <si>
+    <t>Weiß</t>
+  </si>
+  <si>
+    <t>Ostern</t>
+  </si>
+  <si>
+    <t>Schnecke</t>
+  </si>
+  <si>
+    <t>Club</t>
+  </si>
+  <si>
+    <t>Kappe</t>
+  </si>
+  <si>
+    <t>Ordner</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1046,6 +1046,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1068,14 +1073,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1425,13 +1433,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2A1A8A-43B4-4D5C-BD02-C73A271626CC}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1445,31 +1453,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>28</v>
@@ -1477,139 +1485,139 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>80</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>124</v>
+      <c r="B5" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>126</v>
+      <c r="B9" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>129</v>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>318</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1621,11 +1629,11 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -1637,43 +1645,43 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>223</v>
+    <row r="14" spans="1:6">
+      <c r="A14" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>131</v>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -1685,1002 +1693,1002 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>133</v>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>135</v>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>137</v>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>139</v>
+    <row r="20" spans="1:6">
+      <c r="A20" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>141</v>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>143</v>
+    <row r="22" spans="1:6">
+      <c r="A22" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>145</v>
+    <row r="23" spans="1:6">
+      <c r="A23" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>147</v>
+    <row r="24" spans="1:6">
+      <c r="A24" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>149</v>
+    <row r="25" spans="1:6">
+      <c r="A25" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:6">
+      <c r="A27" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:6">
+      <c r="A28" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="C28" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:6">
+      <c r="A29" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C29" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>225</v>
+    <row r="30" spans="1:6">
+      <c r="A30" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:6">
+      <c r="A31" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="C31" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:6">
+      <c r="A32" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>152</v>
+    <row r="33" spans="1:6">
+      <c r="A33" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>154</v>
+    <row r="34" spans="1:6">
+      <c r="A34" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>156</v>
+    <row r="35" spans="1:6">
+      <c r="A35" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>158</v>
+    <row r="36" spans="1:6">
+      <c r="A36" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>160</v>
+    <row r="37" spans="1:6">
+      <c r="A37" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:6">
+      <c r="A38" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="B38" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>228</v>
+      <c r="D38" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:6">
+      <c r="A39" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>230</v>
+      <c r="C39" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>224</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:6">
+      <c r="A40" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A41" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>234</v>
+    <row r="41" spans="1:6">
+      <c r="A41" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:6">
+      <c r="A42" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>236</v>
+      <c r="C42" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>230</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:6">
+      <c r="A43" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>238</v>
+      <c r="C43" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A44" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>240</v>
+    <row r="44" spans="1:6">
+      <c r="A44" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A45" s="2" t="s">
+    <row r="45" spans="1:6">
+      <c r="A45" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="C45" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D45" t="s">
+      <c r="B47" s="5" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A46" s="2" t="s">
+      <c r="C47" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="D47" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C46" t="s">
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D48" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A47" s="2" t="s">
+      <c r="D49" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B47" s="2" t="s">
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D50" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="D47" t="s">
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A48" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="C51" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="D48" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A49" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="D51" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D49" t="s">
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A50" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="D52" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C50" t="s">
-        <v>254</v>
-      </c>
-      <c r="D50" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A51" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C51" t="s">
-        <v>257</v>
-      </c>
-      <c r="D51" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A52" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B55" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D55" s="4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A53" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" t="s">
+    <row r="56" spans="1:6">
+      <c r="A56" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="D53" t="s">
+      <c r="B56" s="5" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A54" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="C56" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D56" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A55" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C55" t="s">
+    <row r="57" spans="1:6">
+      <c r="A57" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="D55" t="s">
+      <c r="C57" s="4" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A56" s="3" t="s">
+      <c r="D57" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C56" t="s">
-        <v>269</v>
-      </c>
-      <c r="D56" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A57" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>273</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A58" s="3" t="s">
+    <row r="58" spans="1:6">
+      <c r="A58" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>275</v>
+      <c r="C58" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>269</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A59" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>278</v>
+    <row r="59" spans="1:6">
+      <c r="A59" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>272</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A60" s="3" t="s">
+    <row r="60" spans="1:6">
+      <c r="A60" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>280</v>
+      <c r="C60" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>274</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A61" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>281</v>
+    <row r="61" spans="1:6">
+      <c r="A61" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>275</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
+    <row r="62" spans="1:6">
+      <c r="A62" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>285</v>
+      <c r="C62" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
+    <row r="63" spans="1:6">
+      <c r="A63" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>287</v>
+      <c r="C63" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>281</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
-        <v>164</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>289</v>
+    <row r="64" spans="1:6">
+      <c r="A64" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>283</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
-        <v>166</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>291</v>
+    <row r="65" spans="1:6">
+      <c r="A65" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>285</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
-        <v>292</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>295</v>
+    <row r="66" spans="1:6">
+      <c r="A66" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>289</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
+    <row r="67" spans="1:6">
+      <c r="A67" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>218</v>
+      <c r="C67" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
+    <row r="68" spans="1:6">
+      <c r="A68" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
+    <row r="69" spans="1:6">
+      <c r="A69" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
+    <row r="70" spans="1:6">
+      <c r="A70" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
+    <row r="71" spans="1:6">
+      <c r="A71" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
-        <v>296</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>299</v>
+    <row r="72" spans="1:6">
+      <c r="A72" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>293</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
+    <row r="73" spans="1:6">
+      <c r="A73" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B73" t="s">
+      <c r="D73" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C73" t="s">
-        <v>88</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="B75" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
+      <c r="C75" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="B74" t="s">
+      <c r="D75" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C74" t="s">
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="D74" t="s">
+      <c r="C76" s="4" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
+      <c r="D76" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="B75" t="s">
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="C75" t="s">
+      <c r="B77" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="D75" t="s">
+      <c r="C77" s="4" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
-        <v>63</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="D77" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="C76" t="s">
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D78" s="4" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
+    <row r="79" spans="1:6">
+      <c r="A79" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="B77" t="s">
+      <c r="D79" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="C77" t="s">
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D80" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
-        <v>168</v>
-      </c>
-      <c r="B78" t="s">
-        <v>169</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="C81" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="D78" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
-        <v>55</v>
-      </c>
-      <c r="B79" t="s">
-        <v>56</v>
-      </c>
-      <c r="C79" t="s">
-        <v>319</v>
-      </c>
-      <c r="D79" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
-        <v>170</v>
-      </c>
-      <c r="B80" t="s">
-        <v>171</v>
-      </c>
-      <c r="C80" t="s">
-        <v>321</v>
-      </c>
-      <c r="D80" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
-        <v>120</v>
-      </c>
-      <c r="B81" t="s">
-        <v>322</v>
-      </c>
-      <c r="C81" t="s">
-        <v>323</v>
-      </c>
-      <c r="D81" t="s">
-        <v>203</v>
+      <c r="D81" s="4" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/sm_words.xlsx
+++ b/sm_words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\pretest_fmri\Guess_fMRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D1B6F0-4B34-48CE-9A05-D63352E0BCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0231CB54-6C4E-48D8-A0D4-484346449891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{0D18EC69-7D83-41FB-BB56-00D5490994EA}"/>
   </bookViews>
@@ -188,9 +188,6 @@
     <t>Golf</t>
   </si>
   <si>
-    <t>Loch</t>
-  </si>
-  <si>
     <t>Ball</t>
   </si>
   <si>
@@ -212,15 +209,9 @@
     <t>Safari</t>
   </si>
   <si>
-    <t>Ausflug</t>
-  </si>
-  <si>
     <t>Afrika</t>
   </si>
   <si>
-    <t>Dschungel</t>
-  </si>
-  <si>
     <t>Sitzgurt</t>
   </si>
   <si>
@@ -566,9 +557,6 @@
     <t>Kälte</t>
   </si>
   <si>
-    <t>Spiele</t>
-  </si>
-  <si>
     <t>Ringe</t>
   </si>
   <si>
@@ -947,9 +935,6 @@
     <t>Restaurant</t>
   </si>
   <si>
-    <t>Kellnerin</t>
-  </si>
-  <si>
     <t>Monster</t>
   </si>
   <si>
@@ -1008,6 +993,21 @@
   </si>
   <si>
     <t>Ordner</t>
+  </si>
+  <si>
+    <t>Spiel</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>Elephant</t>
+  </si>
+  <si>
+    <t>Löwe</t>
+  </si>
+  <si>
+    <t>Server</t>
   </si>
 </sst>
 </file>
@@ -1073,24 +1073,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{35CE3C92-E795-469F-97B1-0E8A53129563}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1433,7 +1511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2A1A8A-43B4-4D5C-BD02-C73A271626CC}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D81"/>
     </sheetView>
   </sheetViews>
@@ -1454,1245 +1532,1267 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="A3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>169</v>
+      <c r="A4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>171</v>
+      <c r="A5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>172</v>
+      <c r="A8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>173</v>
+      <c r="A9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>174</v>
+      <c r="A10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>214</v>
+      <c r="A11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>52</v>
+      <c r="D13" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>217</v>
+      <c r="A14" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>177</v>
+      <c r="A15" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>60</v>
+      <c r="D16" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>178</v>
+      <c r="A17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>180</v>
+      <c r="A18" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>182</v>
+      <c r="A19" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>184</v>
+      <c r="A20" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>186</v>
+      <c r="A21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>188</v>
+      <c r="A22" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>190</v>
+      <c r="A23" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>192</v>
+      <c r="A24" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>194</v>
+      <c r="A25" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>113</v>
+      <c r="A26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>196</v>
+      <c r="A28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>117</v>
+      <c r="A29" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>199</v>
+      <c r="A30" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>201</v>
+      <c r="A31" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>202</v>
+      <c r="A32" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>204</v>
+      <c r="A33" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>206</v>
+      <c r="A34" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>207</v>
+      <c r="A35" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>209</v>
+      <c r="A36" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>211</v>
+      <c r="A37" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>222</v>
+      <c r="A38" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>224</v>
+      <c r="C39" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>91</v>
+      <c r="A40" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>228</v>
+      <c r="A41" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>230</v>
+      <c r="C42" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>232</v>
+      <c r="A43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>234</v>
+      <c r="A44" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C45" s="4" t="s">
+      <c r="A45" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D46" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="5" t="s">
+    <row r="47" spans="1:6">
+      <c r="A47" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B47" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C47" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D47" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="5" t="s">
+    <row r="48" spans="1:6">
+      <c r="A48" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="D48" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="D49" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D47" s="4" t="s">
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="C48" s="4" t="s">
+      <c r="D50" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C49" s="4" t="s">
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="C51" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="4" t="s">
+      <c r="D51" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="6" t="s">
+      <c r="C55" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D55" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" s="4" t="s">
+    <row r="56" spans="1:6">
+      <c r="A56" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C55" s="4" t="s">
+      <c r="C56" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D56" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="5" t="s">
+    <row r="57" spans="1:6">
+      <c r="A57" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="C57" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="D57" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>267</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>269</v>
+      <c r="A58" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>265</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>272</v>
+      <c r="A59" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>274</v>
+      <c r="C60" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>277</v>
+      <c r="A61" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>279</v>
+      <c r="A62" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>281</v>
+      <c r="C63" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>283</v>
+      <c r="A64" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>285</v>
+      <c r="A65" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>289</v>
+      <c r="A66" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>213</v>
+      <c r="A67" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>293</v>
+      <c r="A72" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B73" s="4" t="s">
+      <c r="A73" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D73" s="4" t="s">
+      <c r="D74" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="5" t="s">
+    <row r="75" spans="1:6">
+      <c r="A75" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B75" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C75" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D75" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="4" t="s">
+      <c r="C76" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="D76" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C75" s="4" t="s">
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="B77" s="3" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B76" s="4" t="s">
+      <c r="C77" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="D77" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D76" s="4" t="s">
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="5" t="s">
+      <c r="D78" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B77" s="5" t="s">
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="D79" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D77" s="4" t="s">
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C78" s="4" t="s">
+      <c r="D80" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="C81" s="2" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>198</v>
+      <c r="D81" s="2" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:D1 A22:D37 A57:D61 A38:B56 A2:B21">
+  <conditionalFormatting sqref="A1:D1">
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A81">
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B7 B9:B81 B8:C8">
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:D10 A12:D81 A11:C11">
+    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C7 C9:C81">
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D10 D12:D81">
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:D10 A12:D81 A11:C11">
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:D81">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sm_words.xlsx
+++ b/sm_words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\pretest_fmri\Guess_fMRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0231CB54-6C4E-48D8-A0D4-484346449891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43EDB78-D0AE-4215-AA04-497B8D21C319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{0D18EC69-7D83-41FB-BB56-00D5490994EA}"/>
   </bookViews>
@@ -1007,7 +1007,7 @@
     <t>Löwe</t>
   </si>
   <si>
-    <t>Server</t>
+    <t>Servierer</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1088,87 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{35CE3C92-E795-469F-97B1-0E8A53129563}"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1511,7 +1591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2A1A8A-43B4-4D5C-BD02-C73A271626CC}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D81"/>
     </sheetView>
   </sheetViews>
@@ -2771,29 +2851,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:D10 A12:D81 A11:C11">
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A81">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B7 B9:B81 B8:C8">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:D81">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:D10 A12:D81 A11:C11">
-    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C7 C9:C81">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D10 D12:D81">
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D10 A12:D81 A11:C11">
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D81">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sm_words.xlsx
+++ b/sm_words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\pretest_fmri\Guess_fMRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43EDB78-D0AE-4215-AA04-497B8D21C319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79461617-4A0C-40C7-9B07-DB2E6677F765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{0D18EC69-7D83-41FB-BB56-00D5490994EA}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>Akrobatin</t>
   </si>
   <si>
-    <t>Seil</t>
-  </si>
-  <si>
     <t>Turnerin</t>
   </si>
   <si>
@@ -128,15 +125,9 @@
     <t>Zeichnung</t>
   </si>
   <si>
-    <t>Bleistift</t>
-  </si>
-  <si>
     <t>Anführer</t>
   </si>
   <si>
-    <t>Boss</t>
-  </si>
-  <si>
     <t>Anhänger</t>
   </si>
   <si>
@@ -215,9 +206,6 @@
     <t>Sitzgurt</t>
   </si>
   <si>
-    <t>Gesetz</t>
-  </si>
-  <si>
     <t>Vampir</t>
   </si>
   <si>
@@ -368,15 +356,9 @@
     <t>Mund</t>
   </si>
   <si>
-    <t>Schmecken</t>
-  </si>
-  <si>
     <t>Bad</t>
   </si>
   <si>
-    <t>Handtuch</t>
-  </si>
-  <si>
     <t>Wanne</t>
   </si>
   <si>
@@ -470,9 +452,6 @@
     <t>Schmerz</t>
   </si>
   <si>
-    <t>Sprechen</t>
-  </si>
-  <si>
     <t>Gesellschaft</t>
   </si>
   <si>
@@ -776,9 +755,6 @@
     <t>Schloss</t>
   </si>
   <si>
-    <t>Blase</t>
-  </si>
-  <si>
     <t>Fisch</t>
   </si>
   <si>
@@ -815,9 +791,6 @@
     <t>Album</t>
   </si>
   <si>
-    <t>Erinnerung</t>
-  </si>
-  <si>
     <t>Kamera</t>
   </si>
   <si>
@@ -923,18 +896,6 @@
     <t>Zeitung</t>
   </si>
   <si>
-    <t>Autor</t>
-  </si>
-  <si>
-    <t>Kellner</t>
-  </si>
-  <si>
-    <t>Tablett</t>
-  </si>
-  <si>
-    <t>Restaurant</t>
-  </si>
-  <si>
     <t>Monster</t>
   </si>
   <si>
@@ -971,9 +932,6 @@
     <t>Trauben</t>
   </si>
   <si>
-    <t>Geruch</t>
-  </si>
-  <si>
     <t>Dorn</t>
   </si>
   <si>
@@ -995,9 +953,6 @@
     <t>Ordner</t>
   </si>
   <si>
-    <t>Spiel</t>
-  </si>
-  <si>
     <t>Sport</t>
   </si>
   <si>
@@ -1007,7 +962,52 @@
     <t>Löwe</t>
   </si>
   <si>
-    <t>Servierer</t>
+    <t>Schwung</t>
+  </si>
+  <si>
+    <t>Sprache</t>
+  </si>
+  <si>
+    <t>Geschmack</t>
+  </si>
+  <si>
+    <t>Dusche</t>
+  </si>
+  <si>
+    <t>Maske</t>
+  </si>
+  <si>
+    <t>Schutz</t>
+  </si>
+  <si>
+    <t>Farbe</t>
+  </si>
+  <si>
+    <t>Skizze</t>
+  </si>
+  <si>
+    <t>Fliegen</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Autorin</t>
+  </si>
+  <si>
+    <t>Handwerker</t>
+  </si>
+  <si>
+    <t>Hammer</t>
+  </si>
+  <si>
+    <t>Klempner</t>
+  </si>
+  <si>
+    <t>Tischler</t>
+  </si>
+  <si>
+    <t>Duft</t>
   </si>
 </sst>
 </file>
@@ -1591,7 +1591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2A1A8A-43B4-4D5C-BD02-C73A271626CC}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D81"/>
     </sheetView>
   </sheetViews>
@@ -1613,1032 +1613,1032 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>308</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>319</v>
+        <v>48</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>144</v>
+        <v>309</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>110</v>
+        <v>310</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>112</v>
+        <v>311</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>246</v>
+        <v>312</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C53" s="2" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>313</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="3" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>30</v>
+        <v>314</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>269</v>
+        <v>315</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C63" s="2" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="3" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -2648,210 +2648,210 @@
         <v>4</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="3" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="3" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="3" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="duplicateValues" dxfId="14" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:D10 A12:D81 A11:C11">
     <cfRule type="duplicateValues" dxfId="7" priority="8"/>

--- a/sm_words.xlsx
+++ b/sm_words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\pretest_fmri\Guess_fMRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79461617-4A0C-40C7-9B07-DB2E6677F765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAED0CC9-A19B-4A5A-9877-813191B20488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{0D18EC69-7D83-41FB-BB56-00D5490994EA}"/>
   </bookViews>
@@ -110,9 +110,6 @@
     <t>Hilfe</t>
   </si>
   <si>
-    <t>Station</t>
-  </si>
-  <si>
     <t>Shampoo</t>
   </si>
   <si>
@@ -155,9 +152,6 @@
     <t>Geburtstag</t>
   </si>
   <si>
-    <t>Kerze</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kuchen </t>
   </si>
   <si>
@@ -227,12 +221,6 @@
     <t>Brise</t>
   </si>
   <si>
-    <t>Decke</t>
-  </si>
-  <si>
-    <t>Kissen</t>
-  </si>
-  <si>
     <t>Kino</t>
   </si>
   <si>
@@ -281,12 +269,6 @@
     <t>Applaus</t>
   </si>
   <si>
-    <t>Pumpe</t>
-  </si>
-  <si>
-    <t>Reifen</t>
-  </si>
-  <si>
     <t>Raum</t>
   </si>
   <si>
@@ -362,9 +344,6 @@
     <t>Wanne</t>
   </si>
   <si>
-    <t>Trinken</t>
-  </si>
-  <si>
     <t>Blumen</t>
   </si>
   <si>
@@ -452,9 +431,6 @@
     <t>Schmerz</t>
   </si>
   <si>
-    <t>Gesellschaft</t>
-  </si>
-  <si>
     <t>Büro</t>
   </si>
   <si>
@@ -497,12 +473,6 @@
     <t>Asche</t>
   </si>
   <si>
-    <t>Kiefer</t>
-  </si>
-  <si>
-    <t>Kabine</t>
-  </si>
-  <si>
     <t>Rebe</t>
   </si>
   <si>
@@ -551,9 +521,6 @@
     <t>Langsam</t>
   </si>
   <si>
-    <t>Hülse</t>
-  </si>
-  <si>
     <t>Netz</t>
   </si>
   <si>
@@ -602,9 +569,6 @@
     <t>Rot</t>
   </si>
   <si>
-    <t>Flasche</t>
-  </si>
-  <si>
     <t>Gewürz</t>
   </si>
   <si>
@@ -659,15 +623,6 @@
     <t>Ei</t>
   </si>
   <si>
-    <t>Milch</t>
-  </si>
-  <si>
-    <t>Butter</t>
-  </si>
-  <si>
-    <t>Kuh</t>
-  </si>
-  <si>
     <t>Popcorn</t>
   </si>
   <si>
@@ -686,9 +641,6 @@
     <t>Bett</t>
   </si>
   <si>
-    <t>Ausbildung</t>
-  </si>
-  <si>
     <t>Lernen</t>
   </si>
   <si>
@@ -698,12 +650,6 @@
     <t>Känguru</t>
   </si>
   <si>
-    <t>Wärme</t>
-  </si>
-  <si>
-    <t>Abdeckung</t>
-  </si>
-  <si>
     <t>Fahrrad</t>
   </si>
   <si>
@@ -716,9 +662,6 @@
     <t>Diamant</t>
   </si>
   <si>
-    <t>Handy</t>
-  </si>
-  <si>
     <t>Nummer</t>
   </si>
   <si>
@@ -743,12 +686,6 @@
     <t>Datei</t>
   </si>
   <si>
-    <t>Benzin</t>
-  </si>
-  <si>
-    <t>Wasser</t>
-  </si>
-  <si>
     <t>Tür</t>
   </si>
   <si>
@@ -767,9 +704,6 @@
     <t>Schnürsenkel</t>
   </si>
   <si>
-    <t>Conditioner</t>
-  </si>
-  <si>
     <t>Haare</t>
   </si>
   <si>
@@ -803,9 +737,6 @@
     <t>Weltraum</t>
   </si>
   <si>
-    <t>Gericht</t>
-  </si>
-  <si>
     <t>Essen</t>
   </si>
   <si>
@@ -866,9 +797,6 @@
     <t>Hügel</t>
   </si>
   <si>
-    <t>Spitze</t>
-  </si>
-  <si>
     <t>Professor</t>
   </si>
   <si>
@@ -1008,6 +936,78 @@
   </si>
   <si>
     <t>Duft</t>
+  </si>
+  <si>
+    <t>Center</t>
+  </si>
+  <si>
+    <t>Kerzen</t>
+  </si>
+  <si>
+    <t>Haus</t>
+  </si>
+  <si>
+    <t>Tasse</t>
+  </si>
+  <si>
+    <t>Saft</t>
+  </si>
+  <si>
+    <t>Tomate</t>
+  </si>
+  <si>
+    <t>Apfel</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Tanz</t>
+  </si>
+  <si>
+    <t>Bildung</t>
+  </si>
+  <si>
+    <t>Hemd</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>Hose</t>
+  </si>
+  <si>
+    <t>Bluse</t>
+  </si>
+  <si>
+    <t>Telefon</t>
+  </si>
+  <si>
+    <t>Radio</t>
+  </si>
+  <si>
+    <t>Sendung</t>
+  </si>
+  <si>
+    <t>Fernseher</t>
+  </si>
+  <si>
+    <t>Musik</t>
+  </si>
+  <si>
+    <t>Spülung</t>
+  </si>
+  <si>
+    <t>Geschirr</t>
+  </si>
+  <si>
+    <t>Gipfel</t>
+  </si>
+  <si>
+    <t>Tanne</t>
+  </si>
+  <si>
+    <t>Hütte</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1088,107 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{35CE3C92-E795-469F-97B1-0E8A53129563}"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1592,7 +1692,7 @@
   <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D81"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1629,48 +1729,48 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1696,7 +1796,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>300</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
@@ -1709,304 +1809,304 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>171</v>
+        <v>302</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -2029,536 +2129,536 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>108</v>
+        <v>303</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
-        <v>207</v>
+        <v>304</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>208</v>
+        <v>305</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>209</v>
+        <v>306</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>188</v>
+        <v>307</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>216</v>
+        <v>309</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C42" s="2" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2" t="s">
-        <v>63</v>
+        <v>310</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>64</v>
+        <v>311</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>220</v>
+        <v>312</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>221</v>
+        <v>313</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>226</v>
+        <v>314</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2" t="s">
-        <v>81</v>
+        <v>315</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>82</v>
+        <v>316</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>235</v>
+        <v>317</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>236</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C53" s="2" t="s">
-        <v>243</v>
+        <v>319</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="3" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>255</v>
+        <v>320</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -2571,74 +2671,74 @@
         <v>16</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="3" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>276</v>
+        <v>321</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -2648,7 +2748,7 @@
         <v>4</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>5</v>
@@ -2661,219 +2761,222 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C69" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="3" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="3" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="3" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="3" t="s">
-        <v>153</v>
+        <v>322</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>154</v>
+        <v>323</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="3" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="duplicateValues" dxfId="14" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:D10 A12:D81 A11:C11">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A81">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B7 B9:B81 B8:C8">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:D81">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:D10 A12:D81 A11:C11">
-    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C7 C9:C81">
-    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D10 D12:D81">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:D81">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sm_words.xlsx
+++ b/sm_words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\pretest_fmri\Guess_fMRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAED0CC9-A19B-4A5A-9877-813191B20488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76299F35-DEA7-4D8F-925E-F248FFAE6886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{0D18EC69-7D83-41FB-BB56-00D5490994EA}"/>
   </bookViews>
@@ -614,9 +614,6 @@
     <t>Schnee</t>
   </si>
   <si>
-    <t>Sonntag</t>
-  </si>
-  <si>
     <t>Hase</t>
   </si>
   <si>
@@ -1008,6 +1005,9 @@
   </si>
   <si>
     <t>Hütte</t>
+  </si>
+  <si>
+    <t>Ferien</t>
   </si>
 </sst>
 </file>
@@ -1088,87 +1088,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{35CE3C92-E795-469F-97B1-0E8A53129563}"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1691,9 +1611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2A1A8A-43B4-4D5C-BD02-C73A271626CC}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
@@ -1796,7 +1714,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
@@ -1860,7 +1778,7 @@
         <v>111</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>155</v>
@@ -1876,7 +1794,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>38</v>
@@ -1892,7 +1810,7 @@
         <v>44</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>45</v>
@@ -1905,16 +1823,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1927,7 +1845,7 @@
         <v>113</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>156</v>
@@ -1940,13 +1858,13 @@
         <v>51</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1985,7 +1903,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>118</v>
@@ -1994,7 +1912,7 @@
         <v>160</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -2100,13 +2018,13 @@
         <v>98</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -2154,23 +2072,23 @@
         <v>175</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -2196,7 +2114,7 @@
         <v>100</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>101</v>
@@ -2209,10 +2127,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>180</v>
@@ -2292,13 +2210,13 @@
         <v>61</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -2311,10 +2229,10 @@
         <v>48</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -2324,10 +2242,10 @@
         <v>77</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>78</v>
@@ -2343,10 +2261,10 @@
         <v>140</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -2359,26 +2277,26 @@
         <v>32</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>313</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -2388,13 +2306,13 @@
         <v>104</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -2407,38 +2325,38 @@
         <v>106</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2446,10 +2364,10 @@
         <v>72</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>63</v>
@@ -2457,16 +2375,16 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2477,10 +2395,10 @@
         <v>81</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2488,13 +2406,13 @@
         <v>67</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2505,10 +2423,10 @@
         <v>71</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2519,10 +2437,10 @@
         <v>25</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2530,13 +2448,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2547,24 +2465,24 @@
         <v>83</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="C56" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2572,13 +2490,13 @@
         <v>87</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -2591,10 +2509,10 @@
         <v>89</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -2604,13 +2522,13 @@
         <v>84</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -2620,13 +2538,13 @@
         <v>27</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>291</v>
-      </c>
       <c r="D60" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -2636,13 +2554,13 @@
         <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -2655,10 +2573,10 @@
         <v>66</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -2671,10 +2589,10 @@
         <v>16</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -2687,10 +2605,10 @@
         <v>142</v>
       </c>
       <c r="C64" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -2703,26 +2621,26 @@
         <v>144</v>
       </c>
       <c r="C65" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="D66" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -2748,7 +2666,7 @@
         <v>4</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>5</v>
@@ -2764,7 +2682,7 @@
         <v>28</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>29</v>
@@ -2809,16 +2727,16 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="C72" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
@@ -2828,41 +2746,41 @@
         <v>75</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="C74" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>261</v>
-      </c>
       <c r="D74" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2870,41 +2788,41 @@
         <v>54</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="C77" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>323</v>
-      </c>
       <c r="C78" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2915,10 +2833,10 @@
         <v>50</v>
       </c>
       <c r="C79" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2929,7 +2847,7 @@
         <v>146</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>79</v>
@@ -2940,10 +2858,10 @@
         <v>103</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>176</v>
@@ -2951,7 +2869,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="duplicateValues" dxfId="24" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:D10 A12:D81 A11:C11">
     <cfRule type="duplicateValues" dxfId="8" priority="9"/>
@@ -2964,19 +2882,19 @@
     <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:D81">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:D81">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:D10 A12:D81 A11:C11">
-    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C7 C9:C81">
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D10 D12:D81">
-    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D81">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sm_words.xlsx
+++ b/sm_words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\pretest_fmri\Guess_fMRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76299F35-DEA7-4D8F-925E-F248FFAE6886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EF32A6-B5E3-47ED-BF30-0057BD9D1886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{0D18EC69-7D83-41FB-BB56-00D5490994EA}"/>
   </bookViews>
@@ -518,9 +518,6 @@
     <t>Angriff</t>
   </si>
   <si>
-    <t>Langsam</t>
-  </si>
-  <si>
     <t>Netz</t>
   </si>
   <si>
@@ -866,9 +863,6 @@
     <t>Ostern</t>
   </si>
   <si>
-    <t>Schnecke</t>
-  </si>
-  <si>
     <t>Club</t>
   </si>
   <si>
@@ -941,18 +935,12 @@
     <t>Kerzen</t>
   </si>
   <si>
-    <t>Haus</t>
-  </si>
-  <si>
     <t>Tasse</t>
   </si>
   <si>
     <t>Saft</t>
   </si>
   <si>
-    <t>Tomate</t>
-  </si>
-  <si>
     <t>Apfel</t>
   </si>
   <si>
@@ -1008,6 +996,18 @@
   </si>
   <si>
     <t>Ferien</t>
+  </si>
+  <si>
+    <t>Wurm</t>
+  </si>
+  <si>
+    <t>Loch</t>
+  </si>
+  <si>
+    <t>Erde</t>
+  </si>
+  <si>
+    <t>Karton</t>
   </si>
 </sst>
 </file>
@@ -1714,7 +1714,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
@@ -1778,13 +1778,13 @@
         <v>111</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>155</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1794,7 +1794,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>38</v>
@@ -1810,7 +1810,7 @@
         <v>44</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>45</v>
@@ -1823,16 +1823,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1845,7 +1845,7 @@
         <v>113</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>156</v>
@@ -1858,13 +1858,13 @@
         <v>51</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1903,16 +1903,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>276</v>
+        <v>320</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>160</v>
+        <v>321</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1925,10 +1925,10 @@
         <v>120</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -1941,10 +1941,10 @@
         <v>122</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1957,10 +1957,10 @@
         <v>124</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -1973,10 +1973,10 @@
         <v>126</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -1989,10 +1989,10 @@
         <v>128</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -2005,10 +2005,10 @@
         <v>130</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -2018,13 +2018,13 @@
         <v>98</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -2053,10 +2053,10 @@
         <v>93</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -2069,26 +2069,26 @@
         <v>74</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -2101,10 +2101,10 @@
         <v>86</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -2114,29 +2114,29 @@
         <v>100</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -2149,10 +2149,10 @@
         <v>132</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -2168,7 +2168,7 @@
         <v>102</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -2181,10 +2181,10 @@
         <v>136</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -2197,10 +2197,10 @@
         <v>138</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -2210,13 +2210,13 @@
         <v>61</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -2229,10 +2229,10 @@
         <v>48</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -2242,10 +2242,10 @@
         <v>77</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>78</v>
@@ -2261,10 +2261,10 @@
         <v>140</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -2277,26 +2277,26 @@
         <v>32</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -2306,13 +2306,13 @@
         <v>104</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -2325,38 +2325,38 @@
         <v>106</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2364,10 +2364,10 @@
         <v>72</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>63</v>
@@ -2375,16 +2375,16 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2395,10 +2395,10 @@
         <v>81</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2406,13 +2406,13 @@
         <v>67</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2423,10 +2423,10 @@
         <v>71</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2437,10 +2437,10 @@
         <v>25</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2448,13 +2448,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2465,24 +2465,24 @@
         <v>83</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="C56" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2490,13 +2490,13 @@
         <v>87</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -2509,10 +2509,10 @@
         <v>89</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -2522,13 +2522,13 @@
         <v>84</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -2538,13 +2538,13 @@
         <v>27</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -2554,13 +2554,13 @@
         <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -2573,10 +2573,10 @@
         <v>66</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -2589,10 +2589,10 @@
         <v>16</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -2605,10 +2605,10 @@
         <v>142</v>
       </c>
       <c r="C64" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -2621,26 +2621,26 @@
         <v>144</v>
       </c>
       <c r="C65" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="D66" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -2653,10 +2653,10 @@
         <v>58</v>
       </c>
       <c r="C67" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -2666,7 +2666,7 @@
         <v>4</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>5</v>
@@ -2682,7 +2682,7 @@
         <v>28</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>29</v>
@@ -2727,16 +2727,16 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="C72" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
@@ -2746,41 +2746,41 @@
         <v>75</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="C74" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>260</v>
-      </c>
       <c r="D74" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2788,41 +2788,41 @@
         <v>54</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="C77" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C78" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2833,10 +2833,10 @@
         <v>50</v>
       </c>
       <c r="C79" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2847,7 +2847,7 @@
         <v>146</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>79</v>
@@ -2858,18 +2858,18 @@
         <v>103</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="duplicateValues" dxfId="16" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:D10 A12:D81 A11:C11">
     <cfRule type="duplicateValues" dxfId="8" priority="9"/>
